--- a/examples/sources/data/unsolved/to_schedule/2019-03-13.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-03-13.xlsx
@@ -1726,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
         <v>43537</v>
@@ -3569,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" s="2">
         <v>43537</v>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -4458,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -4540,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -7408,7 +7408,7 @@
         <v>0</v>
       </c>
       <c r="M149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N149">
         <v>1</v>
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="M152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N152">
         <v>1</v>
@@ -7657,7 +7657,7 @@
         <v>1</v>
       </c>
       <c r="N155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O155" s="2">
         <v>43537</v>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="M156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N156">
         <v>1</v>
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="M158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N158">
         <v>1</v>
